--- a/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_Gaussian_noise.xlsx
+++ b/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_Gaussian_noise.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.0255284988245586</v>
       </c>
       <c r="D2" t="n">
+        <v>0.000807282015305364</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.958</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1733444024214397</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.007692156834591167</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0002432473571653916</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.02552469744156884</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0008071618050203012</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.958</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1733348384548632</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.007678997361739047</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002428312180951931</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.0253082685673857</v>
       </c>
       <c r="D4" t="n">
+        <v>0.000800317723081854</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.966</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.181229136730273</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005730968504537431</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1757474707114391</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.007986908061541561</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0002525682093683161</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.0268966580759071</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0008505470096662845</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.967</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005648982209212559</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1842824945116585</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.009536191211761025</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0003015608443204592</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.02162641350453019</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0006838872429493958</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.962</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1449872464456119</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.005595124082603794</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001769333589228808</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>0.8655488505048575</v>
       </c>
       <c r="D7" t="n">
+        <v>0.02737105793735931</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.969</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3790603578287872</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.251402388551545</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.039572818171979</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>3.630795260455621</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1148158274078404</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.955</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3756646620259935</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.166390820866259</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.03688451635850828</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>4.766819840565708</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1507400789186833</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.962</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3693087817130186</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.817447206697112</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.05747272700273701</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>4.475328979171</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1415223285273661</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.958</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3052211498739419</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4425439864603915</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01399446962025554</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>3.796197563706068</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1200463074929333</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.638022191364964</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>4.463577668098498</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1411507194425435</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.02524447371594129</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0007983003527462896</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1592121171201319</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.006629655726659132</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002096481219902154</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.02548672476032372</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0008059610034043199</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1574874962273632</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.006674444746438547</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002110644751569082</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.02520578149840153</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0007970767973948063</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.946</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1617102709434714</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.006906240762173517</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002183945087796555</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.02874900797896686</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0007970767973948063</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.889</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3141321378019129</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00993373041711924</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1560230470518856</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.007679498079732236</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002428470521884322</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.02093304818936628</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0006619611064846111</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.948</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.133069626673141</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.004450762149411714</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001407454571580766</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.03037333407991003</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009604891582573039</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.847</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3599874997829786</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01138380428503583</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1494580147781583</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.00579401317300313</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0001832227841970911</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.03063583381892889</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0009687901288622975</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.852</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3550999859194591</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01122924752599212</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1514596204109153</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.006281969530076125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001986533190681818</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.02876607585186016</v>
       </c>
       <c r="D19" t="n">
+        <v>0.0009096631903704647</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.905</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.161314045939211</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.006739270074620437</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000213114432028135</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.02952721594131821</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0009337325533819821</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.898</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.3026483107502832</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009570579919733181</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1609721338841124</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.007327956383827214</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0002317303276726506</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.02868898597361871</v>
       </c>
       <c r="D21" t="n">
+        <v>0.0009072253943725842</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.912</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1643805422155423</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.00904644853849872</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002860738211715739</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.0292323398905734</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0009244077539040922</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.914</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.1678226594605786</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.009698705855378019</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0003067000085900616</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.0322360390951389</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001019393062828722</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5297151461565722</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.03299663573630977</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00104344524049646</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.03225208533389621</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001019900489452242</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5599395283595198</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.03310511811230437</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001046875754437757</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.03287097850329793</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001039471609888541</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5407202345098188</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.03505384409184766</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001108499880746752</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.03307359577974395</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001045878930757235</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6313460987218324</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04456137497521723</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001409154405905157</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.02868508013250464</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0009071018808315926</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4492199363189184</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02488922679826353</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007870664588301293</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.02726654716627823</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0008622439297384908</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1723043495638095</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.007295556447964113</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002307057517389429</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.0277371782361946</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0008771265909242676</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.931</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1705417108696033</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.007366664326590481</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002329543802993642</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.02690628878219803</v>
       </c>
       <c r="D9" t="n">
+        <v>0.000850851559339839</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.944</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1750176013750611</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.007486479194865957</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002367432591123997</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.03356777349337643</v>
       </c>
       <c r="D10" t="n">
+        <v>0.000850851559339839</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.873</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3329729718760968</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01052952990403655</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1692498043028461</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.008347307974212455</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002639650552939742</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.02245813386017096</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0007101885499508968</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.951</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006826346021115543</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1440243916207736</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.004895211582110999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001548001822790712</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.03478963401168259</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001100144824405779</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.8129999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3899115284266419</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01233008515785678</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1598513933139329</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.006430065288925867</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002033365181659441</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.03522040290681384</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001113766932943469</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.788</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.408724846320847</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01292501450676169</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1623160303833937</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.006810226987610872</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002153582866359766</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.03061737147815725</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0009682062983845318</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.009486832980505138</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1712706437396593</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.00805660535892257</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002547722314331369</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.031818787600474</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001006198412026215</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.881</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3237885112229895</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01023909175659638</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1710491081894349</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.007457840105401591</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002358376115841924</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.02952935230754104</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0009338001112137862</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1811341725621176</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.007789306947470515</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002463195134818036</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.03007595445972797</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009510851889623929</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.185540014739743</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.008407841133847389</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002658792818781038</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.122152156303553</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003862790350201217</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.935151775287239</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1363149047474401</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.004310655780308105</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.1222002975882165</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003864312711291448</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.068462983882376</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1404179386189282</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.004440405103815312</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.1272002154436219</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004022423996659705</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.989667051134602</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1423926097875992</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.004502849689043981</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1275395012076585</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004033153154579965</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.354024094591183</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2206122900048762</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.006976373162410079</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.1047680277629533</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003313055936946877</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.447363193890649</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0968709877491043</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.003063329604774373</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.2521553775705233</v>
       </c>
       <c r="D7" t="n">
+        <v>0.007973853173825887</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.074</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2617708921939184</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008277922444671732</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8450822304951942</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.04112729380935935</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001300559224365184</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.2410587948018765</v>
       </c>
       <c r="D8" t="n">
+        <v>0.007622948415890876</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7440626784003669</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.03747329295476968</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001185009571638133</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.2524419273676135</v>
       </c>
       <c r="D9" t="n">
+        <v>0.007982914674044526</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.067</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8616944815409223</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.04251144765000622</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001344330012050322</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.2511886014154893</v>
       </c>
       <c r="D10" t="n">
+        <v>0.007982914674044526</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.041</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006270486424512855</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7279199741088211</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04061258958185138</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001284282847562757</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.1976167903975984</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006249191615485027</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.081</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2728351150420342</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008627803892068945</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.666649110053771</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02752707610896024</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0008704825782911969</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.2507220249398361</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.007928526583794232</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.8636920482661996</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03556226963643485</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001124577708161822</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.2454924424817284</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.007763152666001405</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8781195299285011</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03819646031461982</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001207878131504303</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.2867641975216593</v>
       </c>
       <c r="D14" t="n">
+        <v>0.009068280155588559</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.04</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.9253859441750858</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04410469831886992</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001394713022022282</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.246458800359227</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00779371158527882</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9253806297121264</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04205467970323779</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001329885741310854</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2202493304490015</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006964895373459208</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.11</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3128897569432403</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00989444288477123</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9786914884547698</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04312550945625696</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001363748351369016</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.2059544148819438</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00651285045194221</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.117</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01016420188701503</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.003765308739927</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.04701769934252616</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00148683020263384</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.05096697045575371</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001611717120786918</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.07148319890175</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.03860409489178244</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001220768668673038</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.05088756495278726</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001609206098305665</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.11304650881913</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04006949303458602</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001267108626775438</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.05412747177100165</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001711660947828331</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.088620482293131</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.03893090926529624</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001231103446596885</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.04814081385375424</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001522346201920515</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.206356318776566</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05796945272741968</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001833155053321062</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.04653500010128286</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001471565912362201</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9065932309462233</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02776320005548719</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0008779494731025265</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.06509027612603542</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00205833526087553</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.358</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.479412140021506</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01516034300403523</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2387360995458577</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0116779015872159</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003692876730689771</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.0607469463169721</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001920987112616087</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.423</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4940354238311258</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01562277184112986</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2203578952918802</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01083012752156859</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000342478703182311</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.06710253206433847</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002121968380877899</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.373</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.483602109176542</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01529284146259288</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2436864121484848</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01241314408511626</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000392538082328144</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.06596791025999585</v>
       </c>
       <c r="D10" t="n">
+        <v>0.002121968380877899</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.324</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.468</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01479945944958802</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2194774354301167</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01178349634769103</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003726268725897902</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.05124373145268314</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001620469071964876</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.416</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4928934976239796</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01558666096378567</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1884188843386065</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.007358739646154022</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002327037799002823</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.07622857322069367</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.002410559141623091</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2533062996968684</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01098807586988222</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003474734685156377</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.07712494149083256</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.002438904795182531</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2586361503260644</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01194410926590892</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003777058990219391</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.08612301087977983</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002723448733315661</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.061</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2393303156727121</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2713931122805413</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01330065041061552</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004206034965919884</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.0767764244307228</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002427883718048805</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.017</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2725550888343594</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01307365667140908</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004134253242870824</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.06926718114761672</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002190420595259447</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.161</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3675309510775929</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.0116223491601311</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.287035729854084</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01328460339990086</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.000420096045557034</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.06844869474532105</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002164537782608135</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.166</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3720806364217304</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01176622284337671</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2956471437704606</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01467333617060122</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004640116317243289</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.02626210025581092</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0008304805294805317</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.973</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.005125524363418829</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1948805410878386</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.008328484688512142</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0002633698107353635</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.02626359978555143</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0008305279487745232</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.984</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2168778161836792</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.008686518318043644</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002746918282179282</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.02571134476356124</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008130641115869697</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.977</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1966638735611789</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.008759738086220339</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0002770072405898069</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.027110301537349</v>
       </c>
       <c r="D5" t="n">
+        <v>0.000857303009119872</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.991</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2342459524668702</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01175888091085086</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0003718484641296407</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.02253815549760918</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0007127190563149066</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.981</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1796545830629873</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.006621990573066356</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002094057285505334</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.02395544525043237</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0007575376935482899</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.959</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006270486424512855</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1590609562691544</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.006589847382077307</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002083892716026215</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.02425353117377736</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0007669639981103352</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.949</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1573883873159729</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.006642574859844542</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000210056660852825</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.02402665879516995</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0007597896635645403</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.955</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1616231489988322</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.006982174501285647</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000220795744448129</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.02828530985050647</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0007597896635645403</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.906</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1559353086043087</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.007596987410944174</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002402378357420918</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.01947243621581211</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0006157725003431635</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.963</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1329487480172956</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.004448276601290205</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001406668572250974</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.02536476804366641</v>
       </c>
       <c r="D12" t="n">
+        <v>0.000802104393398391</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.92</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1499427090988683</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.005858323755835102</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001852564633911106</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.02609149305593262</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0008250854561121413</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.918</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.151823945525287</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.006291986812576712</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001989700933548539</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.02554809072107704</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00080790156547217</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1622733331241911</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.006786645194076732</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002146125648471795</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.02606048233562383</v>
       </c>
       <c r="D15" t="n">
+        <v>0.000824104811031559</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1617661131411277</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.007508351882360043</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002374349342227036</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.02592913586413683</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0008199512709063064</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1648646737090563</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.008800825725293884</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002783065458213202</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.02637685442039969</v>
       </c>
       <c r="D17" t="n">
+        <v>0.000834109374791435</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.945</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1681115457095361</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.008768219250924298</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002772754385665623</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.1071428314064222</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003388153822037159</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.203389478810876</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04530544212653202</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001432683875207836</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1071282503196411</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003387692727587271</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.299139169207693</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04885107545681912</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001544806645922989</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1110610017403198</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003512057247193347</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.212396093055552</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04790491996244665</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001514886582093993</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.117318979252333</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003709951872034102</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.998</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.349850926269223</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.06759950675461592</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002137684100485234</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.08153019140868414</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002578211029209338</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.122404495576482</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03746888255647406</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001184870102598106</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.1356815855916994</v>
       </c>
       <c r="D7" t="n">
+        <v>0.004290628470128549</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.915</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2788816953476869</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.00881901355027874</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7748144280479944</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.03838895153850232</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001213965238474924</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.1397215812709626</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004418384350965656</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.852</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3550999859194591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01122924752599212</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6786019498965261</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.03499950074494351</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001106781393227814</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.1455551931040455</v>
       </c>
       <c r="D9" t="n">
+        <v>0.004602859354744176</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.905</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7904075361739434</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.04037511889970458</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001276773365231779</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.1616029853515202</v>
       </c>
       <c r="D10" t="n">
+        <v>0.004602859354744176</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.783</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4122026200790092</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01303499136938725</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6636161142227835</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.03673789938513341</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00116175438507121</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1120685768018711</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003543919568274213</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.893</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6084550838919299</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02416719871461214</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0007642339260406795</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.1459451239489381</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004615190050742322</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.91</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.8101541319668129</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03242217909879222</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001025279326580888</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.1515940353170551</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004793824312978995</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009486832980505138</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8213744053460865</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03571578589043189</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001129432318366698</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.1296191911604615</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004098918725358221</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.957</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.8767663296004271</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.03715679699435465</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001175001090586593</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.1365588030568224</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004318368522059228</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.8751407074144002</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04172781078282489</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001319549238462604</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.1284647680421444</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004062412660983861</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.963</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.8907683050934833</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04788757831926487</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001514338191185749</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.1258436985965798</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00397952716744927</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.968</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.176</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005565608681896348</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.9095274056303927</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.04969089317522037</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001571364014018128</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.03382060865640475</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00106950155207446</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3404610725775682</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01321430837059211</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004178731215489945</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.03381957772104171</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001069468951035784</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3702325642435091</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01438516368709763</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004548988176557422</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.03368814699677272</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001065312746603629</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.997</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3431846590876624</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01357470067172251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004292697267766078</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.03617815451956628</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001144053698233441</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.998</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3889723073258712</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01848770063466607</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005846324270488527</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.02688503492696761</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008501794534239628</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.309207845246018</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01082301817447229</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003422538858873007</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.03609745836483189</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001141501861759661</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.93</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.217464270619641</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01081780803586489</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003420891268380553</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.03511908138150757</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001110562864983766</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.904</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2945912422323515</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009315793041926168</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2001400374271443</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.009660437561490494</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003054898588815288</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.03642733015345072</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001151933323638352</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.928</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2219976237769211</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01116348453101735</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003530203774207144</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.03981367473860366</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001151933323638352</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.874</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1989808336663924</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01033646456247455</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003268677097103538</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.02701921002860794</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0008544224426886432</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1712619557518935</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.006479124039808879</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002048878920854752</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.04601167358128165</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001455016874730466</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.887</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2376044529423286</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01004842052534058</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003177589574726192</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.04836734170002725</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001529509641397267</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.88</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3249615361854384</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0102761860629321</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.241917409751049</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01104608147102342</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003493077666821723</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.04127378007129259</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001305191526701514</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2571375300361415</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.0113824776490724</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003599455478702755</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.04450139063862197</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001407257534629405</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2577572393228175</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01289196117662699</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004076796082460558</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.04105444792761066</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001298255635320292</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.948</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2612582902927124</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01475158448529825</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004664860606994513</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.04152336115583537</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001313083973582017</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.949</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2678850209633737</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01520940917519481</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004809637485907852</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.1074954616901208</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003399304970721548</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.993</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9686942103942363</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04638856858616895</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001466935341272307</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.107481581146715</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003398866029398318</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.994</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.9691738880047246</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04637679368720199</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001466562986272768</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.1100710850887892</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00348075333406771</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.994</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07722693830523129</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9797569600998678</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0495934868890453</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001568283756790814</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.114743819599206</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003628518173609597</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.9928750599102386</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05631403355745695</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001780806102727185</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.08213284681061317</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002597268666352338</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8437316109835535</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03570575946419313</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001129115254929636</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>0.06954291090083212</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002199139935647815</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.998</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.254683190131545</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.08179574366005771</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.002586608528730599</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>3.346218237685752</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1058167117908166</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.997</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.214591215697543</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>36.87871949868643</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.166207508063121</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>0.07418709031034619</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002346001783613018</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.253119939923732</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.06110768771741923</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001932394757333405</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>0.1926729096169939</v>
       </c>
       <c r="D10" t="n">
+        <v>0.006092852378014611</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.998</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.041870007845289</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.102180010657025</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.003231215650164769</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>3.931452389670361</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1243234406387017</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.996</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.783745713119881</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.764164641851369</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.05578778435785535</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.1319367163009739</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004172205305145431</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.919</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2728351150420342</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008627803892068945</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.7740799362209779</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03726179125169325</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001178321300530871</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.1301765674777999</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004116544512124483</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.871</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3351999403341235</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01059995283008373</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.6783089549243704</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03286274195545662</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001039211147376186</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.1320563239723462</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004175987631817084</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.925</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.7894282024572444</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.03965359835603527</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001253956882265799</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.1433269901162452</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004175987631817084</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.835</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3711805490593493</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01173775958179414</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.662865665758977</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03733819835088917</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001180737505159526</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.1055016878225407</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003336256305112788</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.916</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.6077252000897735</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02465845463886436</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0007797688023875613</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.1636171782324554</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005174029475442816</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.851</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3560884721526379</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01126050620531777</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8075347151637733</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.0320559166120535</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001013697089785172</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.162019414027249</v>
       </c>
       <c r="D18" t="n">
+        <v>0.005123503734919408</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.859</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.8194033420218373</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.03565631082842878</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001127551551767602</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.1379683305889921</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004362941696322954</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.8715895730686661</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03708331528005885</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001172677394751108</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.1424234339740595</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004503824435406346</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.931</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8708687058527435</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.04127058892496868</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00130509061379421</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.134167833139589</v>
       </c>
       <c r="D21" t="n">
+        <v>0.00424275941450521</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.949</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.8881461820908141</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.049053134879839</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001551196325917412</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.1275115081633312</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004032267936792801</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.969</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.9079088889153054</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.053372099356216</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00168777397470449</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.03374339675883926</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001067059897486755</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.985</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2804726963004475</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01363292343087742</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004311108920824972</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.03375470057627011</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001067417355580117</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2806942518130855</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01364459353430362</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004314799331560626</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.0337719213316571</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001067961923680632</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.985</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2837681570221646</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01441794553668167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004559354707617285</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.03618631718576489</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001144311824403114</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.982</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2907579035694474</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01594605008157566</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005042583794089286</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.02602239426497834</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008229003604823474</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2366170276609298</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0101145108161907</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000319848915975713</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.05546899225708505</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001754083550466329</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.989</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4074694326780867</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.4858679734443588</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01536449438214379</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>1.478684097243047</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04676009687157934</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.985</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3465983188094502</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.02511699724786774</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000794269192874428</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.2501356133696634</v>
       </c>
       <c r="D9" t="n">
+        <v>0.007909982621714015</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.987</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4035460886751548</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.3940713306881967</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0124616296554811</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>0.04434091382983298</v>
       </c>
       <c r="D10" t="n">
+        <v>0.00140218281235532</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.983</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.350786153609819</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.07508912543372749</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002374526638806577</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>0.1488873982476801</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004708232933592316</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.985</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5273776354649451</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1969379439683563</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.006227724606506251</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.03541631141688328</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001119962103991763</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2173337183577646</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01056614332565005</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003341307899284039</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.03379784417406997</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001068781675935135</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2001434611668612</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.009466803499446416</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002993666121950324</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.03559844923400383</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001125721807493285</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2218513115403745</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01116696927081505</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003531305745688521</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.03877281238717014</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001125721807493285</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.888</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1991300920143961</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01070008019334417</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003383662455742242</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.02786883612820624</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0008812899790312003</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.171143896074363</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.006500423341633864</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002055614351488585</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.0469302413792232</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001484064538998272</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.855</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.352100837829165</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01113440613593738</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2368358992837052</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.009934391250531202</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003141530351892703</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.04770714635828398</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001508632431591847</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.857</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3500728495613449</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01107027551599327</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2413368827551581</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01102416433978313</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003486146861372109</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.04096155239834461</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001295318020751017</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2556201186506948</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01136375083953748</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0003593533541558903</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.04390195612006422</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001388301750761716</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.913</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2564960714746834</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01269883803992081</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004015725184373798</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.0406969836608637</v>
       </c>
       <c r="D21" t="n">
+        <v>0.001286951622669868</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2604962641749134</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01521114028766857</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0004810184911738154</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.04094608478041537</v>
       </c>
       <c r="D22" t="n">
+        <v>0.00129482889172468</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.949</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2674184568486969</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.0164978664934675</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005217083465273272</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.0326691980438033</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001033090751495357</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.982</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2584017520747103</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01196818056236048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003784671002521399</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.0326794488105555</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001033414909202358</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.989</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2856700148021425</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01242872228826552</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0003930307083661887</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.03193780504394713</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00100996207405287</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.982</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2625665528547945</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01267585738827202</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000400845806424129</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.03301304978543144</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001043964298304964</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.995</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3121683162613271</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01683747936637747</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000532447848538415</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.02790625148221585</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008824731564125189</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.988</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2356714936657543</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.009427611040045875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002981272378069385</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.02715375599827327</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0008586771598300269</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1725973942153482</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.007415877072483065</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002345106239686808</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.02775113045609004</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0008775677988571187</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1709169086830284</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00762842745318037</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002412320571740745</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.02655284236896793</v>
       </c>
       <c r="D9" t="n">
+        <v>0.000839674602373597</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.956</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1752366631049853</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.007609635819086016</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002406378135271282</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.03243569024774332</v>
       </c>
       <c r="D10" t="n">
+        <v>0.000839674602373597</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.892</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3103804117530615</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009815090422405694</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1698140036705406</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.008703117983496163</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002752167557301959</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.02227704323261731</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0007044619614911091</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.955</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.144297516684597</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.004977904352865733</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001574151572952224</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.02831729598597254</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0008954715249281668</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.924</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1706097143641448</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.00679179150314604</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002147753054292014</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.02919322685387095</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0009231708910822371</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.929</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1736263344514582</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.007321130954844902</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002315144886567323</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.02874399768088516</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0009089650173019484</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.180370462226111</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.007568746235648192</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000239344771364738</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.02945844730446585</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0009315578981415976</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1828859563422807</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.007799328692702212</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002466364288924246</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.03049350267516579</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0009642892228996148</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.95</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1956848922649089</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.008477896550658167</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002680946286736488</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.03153326095311283</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009971692666428857</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.201324356759995</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.00932352626315837</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002948357881597889</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.130065765201403</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004113040636491024</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.638746797843922</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.06160397635485086</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00194808878204486</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1300315296778077</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004111958014176529</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.757551700787052</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.06618713495515331</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00209302098259231</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.1320525094874533</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004175867007213466</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.658576542010343</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.06562295543615886</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002075180059699902</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1388731016157441</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00439155306837761</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.853383807770077</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.09741633119476022</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.003080574878727543</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.1001448103105055</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003166856964267115</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.514038499262673</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.05006177006498581</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001583092171049908</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.188388328825846</v>
       </c>
       <c r="D7" t="n">
+        <v>0.005957362036824274</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.859</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9126588267213035</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.05251924351754434</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001660804305044734</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.1852150816937691</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005857015151664675</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.8120000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3907121702737195</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01235540367612487</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8066940787494595</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.04477330811617478</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001415856320276151</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.183448269914271</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005801143657464382</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.87</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3363034344160047</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01063484837691634</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9314643969231533</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.05582222194106406</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00176525365385188</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.2087341900949987</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005801143657464382</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.719</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.449487485921466</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01421404235254701</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7867445454405452</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04831763312156133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001527937718125252</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.1399651614572491</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004426087032781192</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.896</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7248577861174117</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03203109035528907</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001012912014613655</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.1646294962430451</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005206041781741557</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.905</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2932149382279149</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009272270487857868</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.921828101287906</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03776568194897188</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00119425572348258</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.1616093532621647</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005110536474952033</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.921</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.9393148550672482</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.04119932731176686</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001302837123719653</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.159395235966271</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005040519938334062</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.974546701898191</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04151092545111073</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001312690722069625</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.1537625329646814</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004862398229651159</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9894005494312658</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04364230378302</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001380090822913261</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.1460077017300563</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004617168933934852</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.967</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.005648982209212559</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.057309601843128</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04685194599746157</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00148158862163188</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.1313743844022872</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004154422809137259</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.99</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.089158890880309</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.05203861612653105</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001645605532430071</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.04121931535553943</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001303469201162578</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4609114874016898</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01808090077474345</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005717682859569235</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.04116088227082603</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001301621384778539</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.497858947776575</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01958777140326411</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006194197192102714</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.04214477583387548</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001332734831122686</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4669855796188351</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01846314932356117</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005838560464225041</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.04368448308036507</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00138142464941042</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5303776224811774</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02632493723313356</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0008324676091767304</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.03485496522770848</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001102210778855282</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4142961470439838</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01459103535161578</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004614090513114164</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.04444446042302974</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001405457243139846</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.92</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2600670640778121</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01284828205724432</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004062983532116594</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.04449106680538863</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001406931066357394</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.893</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2395660094181355</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01186497070003992</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003752033178328862</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.04477206647713429</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001415817056202154</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.92</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2660777393334463</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0137105703844006</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004335663043475622</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.04865770504261915</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001415817056202154</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.858</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3490501396647765</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01103793458940575</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2386000505699402</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01306956643616113</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.000413295979691588</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.03486357397164495</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001102483011241606</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.917</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2047633067340789</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.008129603784086656</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002570806443243755</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.04871410891277048</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001540475383498634</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.901</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2703603048124789</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01176605128206375</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003720752111766573</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.0495166982124946</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001565855485626712</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.904</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2945912422323515</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009315793041926168</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2766605822203218</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01287643032242796</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004071884795132866</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.04768805728453768</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001508028782077235</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.926</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2617708921939184</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008277922444671732</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2858286210474779</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01302368964313959</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004118452281146661</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.0474572343178068</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001500729518965766</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2914118318432786</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01362162438800711</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004307535849739967</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.04559797519059944</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001441934582941446</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.962</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3100953403815058</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01448623554069241</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.000458094990302688</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.04543142597980936</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001436667834455445</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.965</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3207956878646078</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01615081138992783</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005107335005196179</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.02029099443474212</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0006416575840358593</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.987</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1734299238874025</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00819351538224228</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0002591017065151074</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.02029153139351149</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0006416745641630671</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.987</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1734200474497015</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.008185035489240799</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002588335487531154</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.0191873596815619</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0006067575887861867</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.992</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1759800727409475</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.008367609016929097</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0002646070306325838</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.0195934467933523</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0006195991908031574</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.994</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1846598930527895</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.009617653213799444</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000304136899012446</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.01668399177460966</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0005275941447128112</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1449145989584965</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.005795991885559943</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001832853565822341</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>4.291625815639641</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1357131244259914</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.972</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.341119785841981</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>40.54430091476819</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.282123370299159</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>13.17408993122802</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4166013028257155</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.963</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.583609515097622</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>105.2160130333883</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.32722247507469</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>7.709047861009743</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2437814983203994</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.96</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.589709043012901</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>91.96076988541758</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.90805488220541</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>6.410210168456343</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2027086441269368</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.963</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.482896327211888</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16.90246752250962</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5345029544815375</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>7.778613501732365</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2459813570361239</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.176908833219629</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>9.939344486998477</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3143096702795303</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,16 +8776,25 @@
         <v>0.003546265914542422</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0001121427747857409</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.0001544846738760285</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.004882791102240634</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001544074122188449</v>
       </c>
     </row>
     <row r="14">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.008852663798787427</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.993</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.001320849172606074</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01388540028664061</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004390949112893922</v>
       </c>
     </row>
     <row r="16">
@@ -6694,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6705,6 +8889,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6719,16 +8912,25 @@
         <v>0.02380058836694486</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0007526406889165315</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.14942626828656</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.00579240113059323</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0001831718069400903</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.02400160773131556</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0007589974793686386</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.949</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1513125795892094</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.006099999877925044</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001928989334099221</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.02577755561371723</v>
       </c>
       <c r="D19" t="n">
+        <v>0.00081515788251006</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.944</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1611110867663033</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.006684397044281083</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0002113791944482561</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.02569092429425255</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0008124183596479193</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.944</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1608504690457333</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.00718906737264266</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0002273382714995327</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.0263126628345606</v>
       </c>
       <c r="D21" t="n">
+        <v>0.0008320794586127377</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.944</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1649282943182808</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.009739066282786788</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0003079763173695576</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.02690872018107775</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0008509284469234421</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.944</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.16815568385074</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01049797559101509</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0003319751368845996</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.08476436232640989</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002680484493632242</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9691587705171414</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04699844287670097</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001486221259716912</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.08479279159310943</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002681383505982031</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.96963496827215</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04698934020320161</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001485933407906363</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.08830348899703662</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002792401505702532</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.998</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9812639696079002</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04962002588345073</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00156912299348213</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.0866119541718981</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002738910477813208</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.998</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.993863588280642</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05497566082266064</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001738483040724937</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.0678907309694753</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002146893418772733</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8437208203710547</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03516954671630529</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001112158718992204</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>0.9427345963079912</v>
       </c>
       <c r="D7" t="n">
+        <v>0.02981188553372616</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.998</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.343349433752771</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>2.765529472254971</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08745372068649143</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>2.438916498807041</v>
       </c>
       <c r="D8" t="n">
+        <v>0.07712531159193586</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.997</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.51569165263759</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>43.88638399049292</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.38780931678707</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>0.06991523879430599</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002210913977445714</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.255854123962472</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.06051143453519056</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001913539576153745</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>0.1609446375842167</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005089516319564646</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.997</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.072947854021243</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.8937657472773936</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02826335456038999</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>0.06187877818840907</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001956778779037204</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.997</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.727500017731813</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.1480882540667261</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.004682961775685471</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.03630522025414151</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001148071869571643</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.003</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.01025908246546758</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.08623361472199051</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002726946333909177</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.0571663715126516</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001807759395473442</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.05</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2179449471770336</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00689202437604511</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.05882964856584719</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1884432730284364</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.005959099525068349</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.04401871259774286</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001391993914772147</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.01286892177936858</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.09801410143145339</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.003099478033381627</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.051419980123042</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001391993914772147</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.056</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.05693496150992901</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.183575679937764</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005805172716174116</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.04907444196165172</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001551870115005609</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.007</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.0254498722756734</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1201513116207609</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.003799518085782615</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.1474970480007977</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004664266198337058</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.897</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8073262585786146</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.03103383844571793</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0009813761402616839</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.14541909940662</v>
       </c>
       <c r="D18" t="n">
+        <v>0.004598555694153591</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.901</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.818578071262917</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.03402471814257845</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001075956060758016</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.1306618736014461</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004131891239255975</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.957</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.8704676145185252</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03620822107120364</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001145004486079052</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.1341477790595905</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004242125248813467</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.948</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8701638246764513</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.03961503750239885</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001252737481005684</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.1271704279894319</v>
       </c>
       <c r="D21" t="n">
+        <v>0.00402148203465032</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.965</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.8911136878562282</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.05313455505024433</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001680262164183746</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.1244454304829457</v>
       </c>
       <c r="D22" t="n">
+        <v>0.003935310047262564</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.972</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.9096980588414488</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.05757651997255406</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001820729428594462</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.02762662094241982</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0008736304623215409</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2805331954546029</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01368771486529443</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004328435493727522</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.02760164605359324</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0008728406869915263</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2807552081569759</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0137025039514785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004333112213412942</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.02697086899904023</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008528937651099283</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.995</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2842181623807105</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01434612551669634</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004536643223142039</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.02733611270036706</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0008644437850821586</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.996</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2912014348145801</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01555978408428836</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004920435760678858</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.02253686308171409</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0007126781865357797</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.998</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2366194206649577</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.009864594338453787</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003119458630311588</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>6.344829458976586</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2006411245569988</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.991</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.152904119624103</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>33.80236897931559</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.068924762840583</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>5.524241896995471</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1746918674023497</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.99</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.070500570436213</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>12.7266837382041</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4024530767335103</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>2.066601808110375</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0653516873025102</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.996</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.566520224273653</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>36.73864228003791</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.161777877470814</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>8.020948212572065</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2536446534598414</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.987</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.856629433747367</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>22.0628587214286</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6976888525422474</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>4.894317416190974</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1547719062699374</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.987</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H11" t="n">
         <v>28.76547632366808</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>891.7299292348326</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28.19897634122841</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.008127900590025742</v>
       </c>
       <c r="D12" t="n">
+        <v>0.000257026784599078</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.001033852982932879</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0146004231425713</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004617059193275861</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.01263885555006865</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0003996757055607721</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.007</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.005627832147583444</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03259272790868028</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001030672553495661</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.00650431837165109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.0002056846068129501</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0006680474973341063</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01218025273014977</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003851734110375754</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.0137804688879922</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0002056846068129501</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.016</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.006676653168492096</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03562767711698224</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001126646074307251</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.00848018049807143</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.0002681668534324684</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.001668437978253911</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.0166080393860158</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0005251923192959435</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.04184501154140668</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001323255451868784</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.923</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2367751434003597</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.009665388932410425</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003056464349780019</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.03950931447163305</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001249394225222124</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.929</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2410951010664514</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01059473509403296</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003350349410326237</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.03974974516496333</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001256997311325496</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.947</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2552908355653067</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01109592004760155</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0003508838008554484</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.03861746989000123</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001221191623253759</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.948</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2562912098990157</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.0122886123560271</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0003886000432793363</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.03971738861534334</v>
       </c>
       <c r="D21" t="n">
+        <v>0.001255974107385262</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.952</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2613338187091074</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01570475086731928</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0004966278282623372</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.03776345104478611</v>
       </c>
       <c r="D22" t="n">
+        <v>0.001194185176097894</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.966</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.181229136730273</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005730968504537431</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2679202683743276</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01715458092162877</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005424754801801733</v>
       </c>
     </row>
   </sheetData>

--- a/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_Gaussian_noise.xlsx
+++ b/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_Gaussian_noise.xlsx
@@ -676,31 +676,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03889493226740403</v>
+        <v>0.2617260935580742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0282680243065325</v>
+        <v>4.904029775714378</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001998851167789528</v>
+        <v>0.219314878843608</v>
       </c>
       <c r="E7" t="n">
-        <v>0.91</v>
+        <v>0.884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2861817604250837</v>
+        <v>0.320224920954007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02023610634484806</v>
+        <v>0.01432089382685313</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1587660644358332</v>
+        <v>0.1655064949344554</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006236076370834705</v>
+        <v>0.09589127454273516</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004409571889814415</v>
+        <v>0.004288388166533017</v>
       </c>
     </row>
     <row r="8">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04590404450487906</v>
+        <v>0.3764196039710121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1347924239704011</v>
+        <v>4.422596140865383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009531263704204273</v>
+        <v>0.1977845121600646</v>
       </c>
       <c r="E8" t="n">
-        <v>0.895</v>
+        <v>0.886</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3065534211193866</v>
+        <v>0.317811264746862</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02167660028694536</v>
+        <v>0.01421295183978332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1930258467854741</v>
+        <v>0.2250168689449393</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5434411965918841</v>
+        <v>0.7828297731867677</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03842709552862529</v>
+        <v>0.03500921175312709</v>
       </c>
     </row>
     <row r="9">
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1045353292468156</v>
+        <v>0.1219037463405312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4891133299868877</v>
+        <v>1.101543518499716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03458553524024618</v>
+        <v>0.04926252375079325</v>
       </c>
       <c r="E9" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3226081214104816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01442747379134684</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2098756770130174</v>
+        <v>0.2672186810643237</v>
       </c>
       <c r="I9" t="n">
-        <v>0.366665009985896</v>
+        <v>1.912436349091306</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02592713149848602</v>
+        <v>0.08552675358419355</v>
       </c>
     </row>
     <row r="10">
@@ -778,31 +778,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04812883519813841</v>
+        <v>0.05813699344870847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08808106266093681</v>
+        <v>0.2513734789126654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006228271670166563</v>
+        <v>0.01124176373178659</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3226081214104816</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01442747379134684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1650080017827705</v>
+        <v>0.180840568058384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1365224863545448</v>
+        <v>0.3737539548101605</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009653597588574651</v>
+        <v>0.01671478499629807</v>
       </c>
     </row>
     <row r="11">
@@ -812,31 +812,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08735083391136561</v>
+        <v>0.3041658626417933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3815688120338093</v>
+        <v>4.824245965151437</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02698098944784016</v>
+        <v>0.2157468383651539</v>
       </c>
       <c r="E11" t="n">
-        <v>0.905</v>
+        <v>0.894</v>
       </c>
       <c r="F11" t="n">
-        <v>0.293214938227915</v>
+        <v>0.3078376195334157</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02073342711661533</v>
+        <v>0.01376691686616869</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1435069366884376</v>
+        <v>0.1995037574744954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09348248951205777</v>
+        <v>1.129642569694045</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006610210225617636</v>
+        <v>0.05051915152226858</v>
       </c>
     </row>
     <row r="12">
@@ -1631,31 +1631,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07424885945404135</v>
+        <v>0.08248786166670559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04089425148908786</v>
+        <v>0.1293477627987319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00289166025394821</v>
+        <v>0.005784607807109658</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>0.828</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3570714214271425</v>
+        <v>0.3773804446443933</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02524876234590519</v>
+        <v>0.0168769665520792</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2269645965674794</v>
+        <v>0.2313626150154806</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008047278139577108</v>
+        <v>0.07198588313426685</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005690284942589238</v>
+        <v>0.003219306562171526</v>
       </c>
     </row>
     <row r="8">
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07561338946920744</v>
+        <v>0.08094864091839761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2093867630092697</v>
+        <v>0.208000390860561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01480588000145552</v>
+        <v>0.009302060266214806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.91</v>
+        <v>0.872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2861817604250836</v>
+        <v>0.3340898082851376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02023610634484806</v>
+        <v>0.0149409504383088</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2755886857307221</v>
+        <v>0.2906462575684697</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7720372992079979</v>
+        <v>0.9609745014378056</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05459128095989229</v>
+        <v>0.04297608619717806</v>
       </c>
     </row>
     <row r="9">
@@ -1699,31 +1699,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1722442178427411</v>
+        <v>0.1281903989417539</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8104012424348724</v>
+        <v>0.551330149256487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05730402140077016</v>
+        <v>0.0246562338356522</v>
       </c>
       <c r="E9" t="n">
-        <v>0.79</v>
+        <v>0.806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.407308237088326</v>
+        <v>0.3954288810898871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02880104164782933</v>
+        <v>0.01768411716767337</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2867077175058415</v>
+        <v>0.2580516882366238</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4831865100884115</v>
+        <v>0.3150867045995231</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03416644578613779</v>
+        <v>0.01409110580581859</v>
       </c>
     </row>
     <row r="10">
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07695608938668366</v>
+        <v>0.09189594241957871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1735320910815987</v>
+        <v>0.3807123067221986</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01227057183572801</v>
+        <v>0.01702597195403173</v>
       </c>
       <c r="E10" t="n">
-        <v>0.845</v>
+        <v>0.866</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3619046835839513</v>
+        <v>0.3406523154185217</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02559052559053838</v>
+        <v>0.01523443467937028</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2393563767494513</v>
+        <v>0.2629048044517349</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1987947675249144</v>
+        <v>0.5525643651494705</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01405691281812702</v>
+        <v>0.02471142964836463</v>
       </c>
     </row>
     <row r="11">
@@ -1767,31 +1767,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1435330833230209</v>
+        <v>0.1285055774735383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5692216198895766</v>
+        <v>0.4587115091905623</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0402500467421911</v>
+        <v>0.02051420233223234</v>
       </c>
       <c r="E11" t="n">
-        <v>0.835</v>
+        <v>0.806</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.395428881089887</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01768411716767337</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1980898276832236</v>
+        <v>0.2062049126580141</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1289095776352243</v>
+        <v>0.2046063747797684</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009115283650576084</v>
+        <v>0.009150275252747215</v>
       </c>
     </row>
     <row r="12">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8738461979312663</v>
+        <v>0.8711299795774985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2344655193241084</v>
+        <v>0.2346886018711176</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01657921586685025</v>
+        <v>0.01049559334656406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.055</v>
+        <v>0.062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.22798026230356</v>
+        <v>0.2411555514600482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01612063894515351</v>
+        <v>0.01078480412432233</v>
       </c>
       <c r="H7" t="n">
-        <v>1.057079969526973</v>
+        <v>1.063664328007518</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08498077782849435</v>
+        <v>0.07847735480926517</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006009048427303577</v>
+        <v>0.003509614000957739</v>
       </c>
     </row>
     <row r="8">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5008132968280736</v>
+        <v>0.4988397353383533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2108282677996898</v>
+        <v>0.2141495678606866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01490780978269741</v>
+        <v>0.009577059821773988</v>
       </c>
       <c r="E8" t="n">
-        <v>0.425</v>
+        <v>0.438</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4943429983321297</v>
+        <v>0.496141108959941</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03495532863527391</v>
+        <v>0.02218810492133116</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8735886793285553</v>
+        <v>0.8794616828229253</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09670752543161637</v>
+        <v>0.0704934743099206</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006838254702446644</v>
+        <v>0.003152564010542351</v>
       </c>
     </row>
     <row r="9">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9228271536648167</v>
+        <v>0.9106653177123459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2330536422794338</v>
+        <v>0.2399130888355973</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01647938108360115</v>
+        <v>0.01072923950656683</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2179449471770336</v>
+        <v>0.2337434491060658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01541103500742244</v>
+        <v>0.01045332482992851</v>
       </c>
       <c r="H9" t="n">
-        <v>1.091790830051482</v>
+        <v>1.091337650323443</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04327801732765702</v>
+        <v>0.04298009126880008</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003060217952869519</v>
+        <v>0.001922128115123643</v>
       </c>
     </row>
     <row r="10">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4685033042609643</v>
+        <v>0.4577198285468215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2197873979053709</v>
+        <v>0.2243791590929861</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01554131594782337</v>
+        <v>0.01003454104932314</v>
       </c>
       <c r="E10" t="n">
-        <v>0.445</v>
+        <v>0.47</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4969657935914704</v>
+        <v>0.4990991885387112</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03514078826662827</v>
+        <v>0.02232039426175084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8659936785022893</v>
+        <v>0.8648858116348126</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03966615436099017</v>
+        <v>0.04728701328495596</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00280482067322485</v>
+        <v>0.002114739523161943</v>
       </c>
     </row>
     <row r="11">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5999275559425652</v>
+        <v>0.605336121808273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1802370394187797</v>
+        <v>0.1938802749668752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01274468327940062</v>
+        <v>0.008670589486445673</v>
       </c>
       <c r="E11" t="n">
         <v>0.13</v>
@@ -2567,16 +2567,16 @@
         <v>0.3363034344160047</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02378024390118823</v>
+        <v>0.01503994680841658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8018688596948387</v>
+        <v>0.8054407384157302</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06206638387024555</v>
+        <v>0.06120039389842057</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004388756091837798</v>
+        <v>0.002736964820132635</v>
       </c>
     </row>
     <row r="12">
@@ -3201,31 +3201,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2470077953705091</v>
+        <v>0.2435123338048846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07048512729632067</v>
+        <v>0.07299906923931042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004984051148402537</v>
+        <v>0.003264617622266239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2788816953476868</v>
+        <v>0.3078376195334157</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01971991379291502</v>
+        <v>0.01376691686616869</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3119361730707639</v>
+        <v>0.3127844118441885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01321649004885856</v>
+        <v>0.02094944096748714</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0009345469737032413</v>
+        <v>0.000936887481878404</v>
       </c>
     </row>
     <row r="8">
@@ -3235,31 +3235,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.172833855222568</v>
+        <v>0.1688301146833242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06477596919809732</v>
+        <v>0.06504307511510986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004580352707790554</v>
+        <v>0.002908814748460212</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255</v>
+        <v>0.312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4358612164439502</v>
+        <v>0.4633098315382483</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03082004218037347</v>
+        <v>0.02071984555926999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.277668319119754</v>
+        <v>0.2776362309641736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01185340487895655</v>
+        <v>0.01137323448341513</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0008381622970059884</v>
+        <v>0.0005086265085792189</v>
       </c>
     </row>
     <row r="9">
@@ -3269,31 +3269,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2552417029782151</v>
+        <v>0.2521131695560935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07230615364987582</v>
+        <v>0.07552805892978139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005112817156734362</v>
+        <v>0.003377717479512024</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3</v>
+        <v>0.3052605444534227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02121320343559642</v>
+        <v>0.01365166656492899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3202705053936133</v>
+        <v>0.3289375684352379</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01273335808594791</v>
+        <v>0.2000324001021241</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0009003843849850321</v>
+        <v>0.008945720886615705</v>
       </c>
     </row>
     <row r="10">
@@ -3303,31 +3303,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1629943277868977</v>
+        <v>0.1601506618457783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07114184238502677</v>
+        <v>0.07210238185573219</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005030487917655697</v>
+        <v>0.003224516543381292</v>
       </c>
       <c r="E10" t="n">
-        <v>0.325</v>
+        <v>0.36</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4683748498798799</v>
+        <v>0.48</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03311910324872942</v>
+        <v>0.02146625258399798</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2766563966990542</v>
+        <v>0.2756500482087906</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01174416263040785</v>
+        <v>0.01215650428445235</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008304377035319029</v>
+        <v>0.000543655398976058</v>
       </c>
     </row>
     <row r="11">
@@ -3337,31 +3337,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1828400843199769</v>
+        <v>0.1839325176967588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09696950437546416</v>
+        <v>0.1310207031790767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006856779411218929</v>
+        <v>0.005859423975364764</v>
       </c>
       <c r="E11" t="n">
-        <v>0.175</v>
+        <v>0.186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3799671038392666</v>
+        <v>0.3891066691795452</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02686773157525585</v>
+        <v>0.01740137925567971</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2520554221550875</v>
+        <v>0.247852894291347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1377254394572858</v>
+        <v>0.1032668892049749</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009738659218214407</v>
+        <v>0.004618235681745263</v>
       </c>
     </row>
     <row r="12">
@@ -3986,31 +3986,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04721251624809542</v>
+        <v>0.2830158071508005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03190325518336456</v>
+        <v>5.16090543731418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002255900808208195</v>
+        <v>0.2308027076656557</v>
       </c>
       <c r="E7" t="n">
-        <v>0.885</v>
+        <v>0.852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3190219428189854</v>
+        <v>0.355099985919459</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02255825791146116</v>
+        <v>0.01588055414650257</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1704913274537841</v>
+        <v>0.1778271284431579</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006446759419921744</v>
+        <v>0.1033785959595486</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004558547302504919</v>
+        <v>0.004623231359680716</v>
       </c>
     </row>
     <row r="8">
@@ -4020,31 +4020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0545084696147215</v>
+        <v>0.4076568222616841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1815896067695145</v>
+        <v>5.374150456983751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01284032423397223</v>
+        <v>0.2403393148625445</v>
       </c>
       <c r="E8" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3128897569432403</v>
+        <v>0.3363034344160047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02212464688983758</v>
+        <v>0.01503994680841658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2074278432854828</v>
+        <v>0.2419082680025502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5856166929642027</v>
+        <v>0.8421744522611023</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0414093534771028</v>
+        <v>0.03766318648338952</v>
       </c>
     </row>
     <row r="9">
@@ -4054,31 +4054,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1376624370144304</v>
+        <v>0.09518217520841389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.915407778484444</v>
+        <v>0.6090323592178855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06472910477172633</v>
+        <v>0.02723675511416525</v>
       </c>
       <c r="E9" t="n">
-        <v>0.825</v>
+        <v>0.842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3799671038392666</v>
+        <v>0.3647410040014695</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02686773157525585</v>
+        <v>0.01631171358257617</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2256286203207908</v>
+        <v>0.1977192711216611</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3929090882490189</v>
+        <v>0.255611273636452</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02778286806907049</v>
+        <v>0.01143128367332813</v>
       </c>
     </row>
     <row r="10">
@@ -4088,31 +4088,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04965309707169814</v>
+        <v>0.06552853646509751</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07360926057781716</v>
+        <v>0.2796150188965946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005204960731270212</v>
+        <v>0.01250476379565347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.855</v>
+        <v>0.87</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3521008378291651</v>
+        <v>0.3363034344160047</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02489728900904675</v>
+        <v>0.01503994680841658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.173545019875756</v>
+        <v>0.1951626684607821</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1329927443969296</v>
+        <v>0.4028665960198538</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009404007141167816</v>
+        <v>0.01801674189128679</v>
       </c>
     </row>
     <row r="11">
@@ -4122,31 +4122,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09315886345097039</v>
+        <v>0.3173195972634552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4056854125191452</v>
+        <v>4.940229394269301</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02868629062207495</v>
+        <v>0.2209337750005753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.865</v>
+        <v>0.852</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3417235724968355</v>
+        <v>0.3550999859194591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02416350554038052</v>
+        <v>0.01588055414650257</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1526267473841173</v>
+        <v>0.2120804493766874</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09935923649878038</v>
+        <v>1.197281251684082</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007025758990180552</v>
+        <v>0.05354404533903282</v>
       </c>
     </row>
     <row r="12">
@@ -4771,31 +4771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2277000151516787</v>
+        <v>0.2277730617237101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1693295003047249</v>
+        <v>0.1641554545392729</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01197340379204005</v>
+        <v>0.007341255104543812</v>
       </c>
       <c r="E7" t="n">
-        <v>0.83</v>
+        <v>0.834</v>
       </c>
       <c r="F7" t="n">
-        <v>0.375632799419859</v>
+        <v>0.3720806364217305</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02656124997058685</v>
+        <v>0.01663995192300747</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7948687857456821</v>
+        <v>0.8000354457352056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06519913311053567</v>
+        <v>0.06021823841346471</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004610274914994413</v>
+        <v>0.002693041491555923</v>
       </c>
     </row>
     <row r="8">
@@ -4805,31 +4805,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1634523511479481</v>
+        <v>0.1659622623614011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1314939861551326</v>
+        <v>0.131526781581552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009298028929554426</v>
+        <v>0.005882056489562353</v>
       </c>
       <c r="E8" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3249615361854384</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01453272169966796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6570065804150304</v>
+        <v>0.6614759935650103</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07348702829069977</v>
+        <v>0.05390041170707782</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005196317603360146</v>
+        <v>0.00241049969184503</v>
       </c>
     </row>
     <row r="9">
@@ -4839,31 +4839,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2434635803280512</v>
+        <v>0.2345361914666391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1725259060834829</v>
+        <v>0.1684456006800572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01219942381219842</v>
+        <v>0.007533116272627854</v>
       </c>
       <c r="E9" t="n">
-        <v>0.835</v>
+        <v>0.84</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3666060555964671</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01639512122553535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8167176365338882</v>
+        <v>0.8173299752402788</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03550400322980483</v>
+        <v>0.03526181405144264</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002510512144306408</v>
+        <v>0.00157695626457966</v>
       </c>
     </row>
     <row r="10">
@@ -4873,31 +4873,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1732604761776871</v>
+        <v>0.1663276905391021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1279981264723906</v>
+        <v>0.1252930597656788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009050834320780075</v>
+        <v>0.005603275974900031</v>
       </c>
       <c r="E10" t="n">
-        <v>0.845</v>
+        <v>0.862</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3619046835839513</v>
+        <v>0.3448999855030441</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02559052559053838</v>
+        <v>0.01542439626046997</v>
       </c>
       <c r="H10" t="n">
-        <v>0.642654704717196</v>
+        <v>0.6431034266494998</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03271185409860804</v>
+        <v>0.03819329980910981</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00231307738583107</v>
+        <v>0.001708056293163986</v>
       </c>
     </row>
     <row r="11">
@@ -4907,31 +4907,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1632308572964148</v>
+        <v>0.1948077867892357</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1175994873840627</v>
+        <v>0.6752772219462959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008315539499333256</v>
+        <v>0.03019931543858261</v>
       </c>
       <c r="E11" t="n">
-        <v>0.89</v>
+        <v>0.876</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3128897569432403</v>
+        <v>0.3295815528818322</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02212464688983759</v>
+        <v>0.01473933512747437</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6170859549726848</v>
+        <v>0.6342666449860137</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04848862591650317</v>
+        <v>0.3223766015986529</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003428663619597717</v>
+        <v>0.0144171199105991</v>
       </c>
     </row>
     <row r="12">
@@ -5556,31 +5556,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07221003989060062</v>
+        <v>0.0690469548025124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04841154967711602</v>
+        <v>0.048269680754364</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003423213506443815</v>
+        <v>0.002158685748379424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3882975663070785</v>
+        <v>0.3702755730533679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02745678422539683</v>
+        <v>0.0165592270351004</v>
       </c>
       <c r="H7" t="n">
-        <v>0.234535447179677</v>
+        <v>0.2352448255381339</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01067132905804481</v>
+        <v>0.01620979179117545</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007545769141216538</v>
+        <v>0.0007249239269237274</v>
       </c>
     </row>
     <row r="8">
@@ -5590,31 +5590,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05617303433407632</v>
+        <v>0.05398040913641865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04176151413552855</v>
+        <v>0.04119427663627052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002952984983785009</v>
+        <v>0.001842264056852645</v>
       </c>
       <c r="E8" t="n">
-        <v>0.875</v>
+        <v>0.872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3340898082851376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.0149409504383088</v>
       </c>
       <c r="H8" t="n">
-        <v>0.208820388265913</v>
+        <v>0.2088177477469191</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009542682788815322</v>
+        <v>0.008873606497573471</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006747695710683469</v>
+        <v>0.0003968397466831621</v>
       </c>
     </row>
     <row r="9">
@@ -5624,31 +5624,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07288155153053158</v>
+        <v>0.07896384810292861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0493486630381986</v>
+        <v>0.1676140113183334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003489477427680016</v>
+        <v>0.007495926465784251</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3923009049186607</v>
+        <v>0.3891066691795452</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0277398630133604</v>
+        <v>0.01740137925567971</v>
       </c>
       <c r="H9" t="n">
-        <v>0.239548423873111</v>
+        <v>0.2462810865600353</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01038931547806918</v>
+        <v>0.1469151552141081</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0007346355426429074</v>
+        <v>0.006570245479673569</v>
       </c>
     </row>
     <row r="10">
@@ -5658,31 +5658,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0565843101886804</v>
+        <v>0.05840446308769941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04283350238596897</v>
+        <v>0.04329127006287582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003028785999908882</v>
+        <v>0.001936044453857838</v>
       </c>
       <c r="E10" t="n">
-        <v>0.845</v>
+        <v>0.836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3619046835839513</v>
+        <v>0.3702755730533679</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02559052559053838</v>
+        <v>0.0165592270351004</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2053976222084008</v>
+        <v>0.2049256988366546</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009502801313279661</v>
+        <v>0.009576147150872912</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006719495248888477</v>
+        <v>0.0004282583198378552</v>
       </c>
     </row>
     <row r="11">
@@ -5692,31 +5692,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0579963589374892</v>
+        <v>0.05677537161272102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06767769928967769</v>
+        <v>0.06839176698046508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004785536010283508</v>
+        <v>0.003058572801392909</v>
       </c>
       <c r="E11" t="n">
-        <v>0.835</v>
+        <v>0.844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3628553430776512</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01622738426241272</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1941560424386614</v>
+        <v>0.1908570955722183</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1081775914508834</v>
+        <v>0.08061372943965629</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007649310848734751</v>
+        <v>0.00360515557893695</v>
       </c>
     </row>
     <row r="12">
@@ -6341,31 +6341,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1860440845610971</v>
+        <v>0.1826217540303469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1472264322406905</v>
+        <v>0.1432383596896191</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0104104808607294</v>
+        <v>0.006405814185031082</v>
       </c>
       <c r="E7" t="n">
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3249615361854384</v>
+        <v>0.3295815528818322</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02297825058615211</v>
+        <v>0.01473933512747437</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7395674596000831</v>
+        <v>0.7443914337263982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06108827720641604</v>
+        <v>0.05629788209814127</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004319593506366039</v>
+        <v>0.002517717827214247</v>
       </c>
     </row>
     <row r="8">
@@ -6375,31 +6375,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1589939223763072</v>
+        <v>0.1569737591421357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1236001287723745</v>
+        <v>0.1226523322513873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008739848921047649</v>
+        <v>0.005485179050259836</v>
       </c>
       <c r="E8" t="n">
-        <v>0.875</v>
+        <v>0.868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3384907679686405</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01513776733867977</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6112425160207116</v>
+        <v>0.6155280887362684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06862235549553553</v>
+        <v>0.05043827764080709</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004852333291188712</v>
+        <v>0.002255668349457047</v>
       </c>
     </row>
     <row r="9">
@@ -6409,31 +6409,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1887602997995454</v>
+        <v>0.1801935235386284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1457932469349819</v>
+        <v>0.1431366689173494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01030913935589305</v>
+        <v>0.006401266435441488</v>
       </c>
       <c r="E9" t="n">
-        <v>0.89</v>
+        <v>0.902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3128897569432403</v>
+        <v>0.2973146481423342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02212464688983759</v>
+        <v>0.01329631527905382</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7583091675917685</v>
+        <v>0.7593098520080372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03433443653171746</v>
+        <v>0.03386266842849389</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002427811289979654</v>
+        <v>0.001514384570112966</v>
       </c>
     </row>
     <row r="10">
@@ -6443,31 +6443,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1638827125966275</v>
+        <v>0.1570202221769395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11971916009098</v>
+        <v>0.1160367854670273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008465422993828981</v>
+        <v>0.005189322803896656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.85</v>
+        <v>0.864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3570714214271425</v>
+        <v>0.3427885645700567</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02524876234590519</v>
+        <v>0.01532997064576446</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5950480906381437</v>
+        <v>0.5954171164988049</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03142974448758776</v>
+        <v>0.03634070429087522</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002222418545813381</v>
+        <v>0.001625205702892306</v>
       </c>
     </row>
     <row r="11">
@@ -6477,31 +6477,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.805516641009445</v>
+        <v>0.4049288399437997</v>
       </c>
       <c r="C11" t="n">
-        <v>9.438701926461276</v>
+        <v>5.979049630071072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6674170137799298</v>
+        <v>0.2673912282736778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.915</v>
+        <v>0.908</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2788816953476868</v>
+        <v>0.289025950392002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01971991379291502</v>
+        <v>0.01292563344675997</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6698872363409168</v>
+        <v>0.6183692938049015</v>
       </c>
       <c r="I11" t="n">
-        <v>1.276612023153378</v>
+        <v>0.8092347693700956</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09027010185160317</v>
+        <v>0.03619007908135797</v>
       </c>
     </row>
     <row r="12">
@@ -7296,31 +7296,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05615054497745055</v>
+        <v>0.05344597400732139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04268575508216658</v>
+        <v>0.04189234336776594</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003018338687866812</v>
+        <v>0.001873482550141742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3363034344160047</v>
+        <v>0.3340898082851376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02378024390118823</v>
+        <v>0.0149409504383088</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2179467729600141</v>
+        <v>0.2188465586407659</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01019152401185553</v>
+        <v>0.01534082495366195</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007206495739408575</v>
+        <v>0.0006860625485462637</v>
       </c>
     </row>
     <row r="8">
@@ -7330,31 +7330,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0479499054286583</v>
+        <v>0.04665688969815436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03808873166646393</v>
+        <v>0.037062408812687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002693280044815143</v>
+        <v>0.001657481310301108</v>
       </c>
       <c r="E8" t="n">
-        <v>0.865</v>
+        <v>0.876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3417235724968355</v>
+        <v>0.3295815528818322</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02416350554038052</v>
+        <v>0.01473933512747437</v>
       </c>
       <c r="H8" t="n">
-        <v>0.194007032304183</v>
+        <v>0.1942540086798748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009162716165758715</v>
+        <v>0.008372490878838795</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000647901873489559</v>
+        <v>0.00037442917492161</v>
       </c>
     </row>
     <row r="9">
@@ -7364,31 +7364,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0552515821388611</v>
+        <v>0.0689897852073794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04154707156563579</v>
+        <v>0.3121497785501924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002937821604250386</v>
+        <v>0.01395976247999472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.875</v>
+        <v>0.874</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.331849363416596</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01484075469779081</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2223323858543292</v>
+        <v>0.2288149756730978</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009800945970239821</v>
+        <v>0.1362682155632565</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006930315357599544</v>
+        <v>0.006094099863440725</v>
       </c>
     </row>
     <row r="10">
@@ -7398,31 +7398,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05069101698554798</v>
+        <v>0.05225597376095188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03750108659030627</v>
+        <v>0.03940863928515389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002651727262986946</v>
+        <v>0.001762407926847456</v>
       </c>
       <c r="E10" t="n">
         <v>0.84</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3666060555964672</v>
+        <v>0.3666060555964671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02592296279363144</v>
+        <v>0.01639512122553535</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1899749531055762</v>
+        <v>0.1897162666515285</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009079325928839395</v>
+        <v>0.009072769643012768</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006420052932885185</v>
+        <v>0.000405746593319461</v>
       </c>
     </row>
     <row r="11">
@@ -7432,31 +7432,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04735541787625534</v>
+        <v>0.04526457996493828</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05718293729920899</v>
+        <v>0.04939284175100853</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004043444273243583</v>
+        <v>0.002208915035142897</v>
       </c>
       <c r="E11" t="n">
-        <v>0.895</v>
+        <v>0.898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3065534211193867</v>
+        <v>0.3026483107502832</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02167660028694537</v>
+        <v>0.01353484392226227</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1823429920270731</v>
+        <v>0.1792722937235411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.10232173184578</v>
+        <v>0.07593163488895362</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007235239045090252</v>
+        <v>0.0033957659450879</v>
       </c>
     </row>
     <row r="12">
@@ -8251,31 +8251,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06429800724103718</v>
+        <v>0.07270808337575536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04101461446271099</v>
+        <v>0.1103744419335358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002900171201433478</v>
+        <v>0.004936095102839788</v>
       </c>
       <c r="E7" t="n">
-        <v>0.845</v>
+        <v>0.806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3619046835839513</v>
+        <v>0.3954288810898871</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02559052559053838</v>
+        <v>0.01768411716767337</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2092189959802288</v>
+        <v>0.2131047422686063</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008019364618735042</v>
+        <v>0.06644563528192983</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000567054710271502</v>
+        <v>0.00297153914597107</v>
       </c>
     </row>
     <row r="8">
@@ -8285,31 +8285,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07380398351530136</v>
+        <v>0.4989884353034922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2790537021681437</v>
+        <v>6.211327511932251</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01973207651183056</v>
+        <v>0.277779010943903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3521008378291651</v>
+        <v>0.375632799419859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02489728900904675</v>
+        <v>0.01679880948162697</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2532216126008913</v>
+        <v>0.2958743369483355</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6998725341934585</v>
+        <v>1.021386991512236</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04948846148944083</v>
+        <v>0.04567781488710723</v>
       </c>
     </row>
     <row r="9">
@@ -8319,31 +8319,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.399727554779107</v>
+        <v>0.2117379675548266</v>
       </c>
       <c r="C9" t="n">
-        <v>3.918209379314426</v>
+        <v>2.490398266075569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2770592422221964</v>
+        <v>0.1113739962798516</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.3938730760029175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0282842712474619</v>
+        <v>0.01761453944898929</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2795345360142923</v>
+        <v>0.2427578039836361</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4906597762215372</v>
+        <v>0.3157240218854877</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03469488550217229</v>
+        <v>0.01411960750131164</v>
       </c>
     </row>
     <row r="10">
@@ -8353,31 +8353,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07093016613084917</v>
+        <v>0.0895242846540566</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1457491943404181</v>
+        <v>0.4267843703378271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01030602436705856</v>
+        <v>0.01908637727619652</v>
       </c>
       <c r="E10" t="n">
-        <v>0.835</v>
+        <v>0.848</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3590208907570701</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01605590234150669</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2194416516811109</v>
+        <v>0.2408218968327163</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1802234219336644</v>
+        <v>0.4993187787367538</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01274372037779384</v>
+        <v>0.02233021463395116</v>
       </c>
     </row>
     <row r="11">
@@ -8387,31 +8387,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09950149741038357</v>
+        <v>0.1192864456878141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4100317252063888</v>
+        <v>0.482669689620703</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02899362133950565</v>
+        <v>0.02158564473341233</v>
       </c>
       <c r="E11" t="n">
-        <v>0.825</v>
+        <v>0.806</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3799671038392666</v>
+        <v>0.3954288810898871</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02686773157525585</v>
+        <v>0.01768411716767337</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1858245146758383</v>
+        <v>0.1933800241848616</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1215941533832703</v>
+        <v>0.1912882900909983</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00859800504099476</v>
+        <v>0.008554672398863433</v>
       </c>
     </row>
     <row r="12">
@@ -9036,31 +9036,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3348760768585102</v>
+        <v>0.3320609236560584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2251078260737923</v>
+        <v>0.2107246475662041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01591752703149405</v>
+        <v>0.009423892729854359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.745</v>
+        <v>0.768</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4358612164439502</v>
+        <v>0.4221089906647335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03082004218037347</v>
+        <v>0.01887728794080337</v>
       </c>
       <c r="H7" t="n">
-        <v>0.974791359481603</v>
+        <v>0.9794148157630743</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07956853750148064</v>
+        <v>0.07360264229577348</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005626345243639307</v>
+        <v>0.003291610229939014</v>
       </c>
     </row>
     <row r="8">
@@ -9070,31 +9070,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2219490322915851</v>
+        <v>0.2189332362366312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1715418532534934</v>
+        <v>0.165116572047999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01212984076928528</v>
+        <v>0.007384237586221346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.834</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3882975663070785</v>
+        <v>0.3720806364217305</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02745678422539682</v>
+        <v>0.01663995192300747</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8056433323784284</v>
+        <v>0.809864501046381</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09024491395397891</v>
+        <v>0.06578644832991441</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006381279062445497</v>
+        <v>0.002942059409279323</v>
       </c>
     </row>
     <row r="9">
@@ -9104,31 +9104,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3731896485536857</v>
+        <v>0.3562174075745857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2300978925440882</v>
+        <v>0.2262788988588842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01627037801546583</v>
+        <v>0.01011949999444529</v>
       </c>
       <c r="E9" t="n">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4465142774872938</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03157332735078772</v>
+        <v>0.01936491673103708</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010969187906003</v>
+        <v>1.010749332056064</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04287480690494003</v>
+        <v>0.04211401021271381</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003031706670454691</v>
+        <v>0.001883395792814969</v>
       </c>
     </row>
     <row r="10">
@@ -9138,31 +9138,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2387464050477883</v>
+        <v>0.2238406641713366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1700559353426527</v>
+        <v>0.1658788443130652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01202477050618108</v>
+        <v>0.007418327438262363</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3923009049186606</v>
+        <v>0.375632799419859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02773986301336039</v>
+        <v>0.01679880948162697</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7926893960573981</v>
+        <v>0.7916295306069063</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04167936003213295</v>
+        <v>0.04679303756702521</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002947175811423677</v>
+        <v>0.002092648257471395</v>
       </c>
     </row>
     <row r="11">
@@ -9172,31 +9172,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2656012889787704</v>
+        <v>0.2470608811866716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.519348088972746</v>
+        <v>0.3526115397064276</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03672345555089031</v>
+        <v>0.01576926744868876</v>
       </c>
       <c r="E11" t="n">
-        <v>0.835</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3923009049186606</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01754422982065613</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7944113167704683</v>
+        <v>0.7717731684835587</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6145087450210218</v>
+        <v>0.3915922722078372</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04345233007027996</v>
+        <v>0.01751253880240651</v>
       </c>
     </row>
     <row r="12">
@@ -9821,31 +9821,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1013259933643269</v>
+        <v>0.09889917113460817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06195034384181317</v>
+        <v>0.06168073708076219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004380550822738437</v>
+        <v>0.002758446420297524</v>
       </c>
       <c r="E7" t="n">
-        <v>0.775</v>
+        <v>0.766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4175823272122516</v>
+        <v>0.423372176695635</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02952752952754429</v>
+        <v>0.01893377933746984</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2877725527807724</v>
+        <v>0.2884248453088862</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01287570028309055</v>
+        <v>0.01977341524553317</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0009104494982698876</v>
+        <v>0.000884294012726857</v>
       </c>
     </row>
     <row r="8">
@@ -9855,31 +9855,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07308457124590027</v>
+        <v>0.07264983488901428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05348186450462727</v>
+        <v>0.05126784820697342</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003781738906172206</v>
+        <v>0.002292767873018665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.875</v>
+        <v>0.854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3531062163145815</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01579139005914299</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2561720990200059</v>
+        <v>0.2560218173125118</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01149829355967947</v>
+        <v>0.01099525545677951</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0008130521348122957</v>
+        <v>0.0004917227726266897</v>
       </c>
     </row>
     <row r="9">
@@ -9889,31 +9889,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1094598758677489</v>
+        <v>0.1076048234348317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06639461849292531</v>
+        <v>0.06825594518010507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004694808497064124</v>
+        <v>0.003052498665824281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.715</v>
+        <v>0.73</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4514144437210666</v>
+        <v>0.4439594576084623</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03191982142807193</v>
+        <v>0.01985447052932916</v>
       </c>
       <c r="H9" t="n">
-        <v>0.296774692470702</v>
+        <v>0.3052155799774475</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01273840553661866</v>
+        <v>0.183459947715286</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0009007412936447318</v>
+        <v>0.008204578284798734</v>
       </c>
     </row>
     <row r="10">
@@ -9923,31 +9923,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07825230602347708</v>
+        <v>0.07802410715287542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05793715036917566</v>
+        <v>0.05704735764674566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004096775190866879</v>
+        <v>0.002551235392697315</v>
       </c>
       <c r="E10" t="n">
-        <v>0.835</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3923009049186606</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01754422982065613</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2535786498459665</v>
+        <v>0.2528595915810649</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01239654472666856</v>
+        <v>0.01200380928869955</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008765680839509676</v>
+        <v>0.0005368266711695119</v>
       </c>
     </row>
     <row r="11">
@@ -9957,31 +9957,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0801034346255754</v>
+        <v>0.07997984931600509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1010635253894817</v>
+        <v>0.1013550754696939</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007146270413352129</v>
+        <v>0.004532736772297138</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>0.788</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4</v>
+        <v>0.408724846320847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0282842712474619</v>
+        <v>0.01827873080933138</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2367285663825942</v>
+        <v>0.2326012158476158</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1340461278000872</v>
+        <v>0.09937039956982911</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009478492595924025</v>
+        <v>0.004443979367789075</v>
       </c>
     </row>
     <row r="12">
@@ -10606,31 +10606,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.813666145348553</v>
+        <v>0.9947905978673331</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0436608164241</v>
+        <v>10.85982613430911</v>
       </c>
       <c r="D7" t="n">
-        <v>1.134458135835038</v>
+        <v>0.4856661892028784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.895</v>
+        <v>0.916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3065534211193866</v>
+        <v>0.2773878151613729</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02167660028694536</v>
+        <v>0.01240516021661953</v>
       </c>
       <c r="H7" t="n">
-        <v>8.890110964033859</v>
+        <v>6.794459496501043</v>
       </c>
       <c r="I7" t="n">
-        <v>71.14858449760786</v>
+        <v>66.67387290223182</v>
       </c>
       <c r="J7" t="n">
-        <v>5.030964657008258</v>
+        <v>2.981746242651431</v>
       </c>
     </row>
     <row r="8">
@@ -10640,31 +10640,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03865483433652331</v>
+        <v>0.2140574262586244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06789558409662494</v>
+        <v>2.547286482158325</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0048009427927345</v>
+        <v>0.1139181146454464</v>
       </c>
       <c r="E8" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3065534211193866</v>
+        <v>0.2861817604250837</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02167660028694536</v>
+        <v>0.01279843740462092</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1897805201300619</v>
+        <v>2.565389219758266</v>
       </c>
       <c r="I8" t="n">
-        <v>0.493660017425286</v>
+        <v>46.15900324027096</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03490703459220889</v>
+        <v>2.064293380377578</v>
       </c>
     </row>
     <row r="9">
@@ -10674,31 +10674,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4200969178201657</v>
+        <v>0.7534760748673298</v>
       </c>
       <c r="C9" t="n">
-        <v>2.829630138881337</v>
+        <v>7.963820007922046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2000850659452825</v>
+        <v>0.3561528579657322</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2633913438213185</v>
+        <v>0.2374868417407584</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01862458053218917</v>
+        <v>0.0106207344378814</v>
       </c>
       <c r="H9" t="n">
-        <v>3.768749571994412</v>
+        <v>4.898630544832221</v>
       </c>
       <c r="I9" t="n">
-        <v>32.17495047402808</v>
+        <v>51.02571131097388</v>
       </c>
       <c r="J9" t="n">
-        <v>2.275112566452658</v>
+        <v>2.28193918183235</v>
       </c>
     </row>
     <row r="10">
@@ -10708,31 +10708,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.103296696083102</v>
+        <v>0.6028881834876767</v>
       </c>
       <c r="C10" t="n">
-        <v>8.817584120305249</v>
+        <v>5.89782744056539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6234973525150659</v>
+        <v>0.2637588615333563</v>
       </c>
       <c r="E10" t="n">
-        <v>0.905</v>
+        <v>0.924</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2932149382279149</v>
+        <v>0.2649981132008302</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02073342711661533</v>
+        <v>0.01185107590052481</v>
       </c>
       <c r="H10" t="n">
-        <v>18.77185967718563</v>
+        <v>8.281253689939682</v>
       </c>
       <c r="I10" t="n">
-        <v>160.4801311114592</v>
+        <v>102.1782034671474</v>
       </c>
       <c r="J10" t="n">
-        <v>11.3476588954619</v>
+        <v>4.569548175426925</v>
       </c>
     </row>
     <row r="11">
@@ -10742,31 +10742,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07878112672328143</v>
+        <v>0.3486277391948391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4846496160082854</v>
+        <v>5.638624173649679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0342699029978915</v>
+        <v>0.2521669390370852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.905</v>
+        <v>0.912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2932149382279149</v>
+        <v>0.2832948993540124</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02073342711661533</v>
+        <v>0.01266933305269066</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7316187534962318</v>
+        <v>0.5890739837756255</v>
       </c>
       <c r="I11" t="n">
-        <v>8.308757142905868</v>
+        <v>6.041562117959705</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5875178518980904</v>
+        <v>0.27018687172091</v>
       </c>
     </row>
     <row r="12">
@@ -11561,31 +11561,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.169279852010517</v>
+        <v>0.2260957127237621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1303029950399725</v>
+        <v>1.150055718602763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009213813140168161</v>
+        <v>0.05143205529416296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.915</v>
+        <v>0.922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2788816953476868</v>
+        <v>0.2681715868618448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01971991379291502</v>
+        <v>0.01199299795714149</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7408557725704844</v>
+        <v>5.187420311084447</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05973144892342613</v>
+        <v>99.26553459034558</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004223651258385252</v>
+        <v>4.439289663337389</v>
       </c>
     </row>
     <row r="8">
@@ -11595,31 +11595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1390250883146866</v>
+        <v>0.2379114621803761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1098461499351385</v>
+        <v>2.144013172439863</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007767295750637067</v>
+        <v>0.09588318396461026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9</v>
+        <v>0.908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3</v>
+        <v>0.289025950392002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02121320343559642</v>
+        <v>0.01292563344675997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.612307383432261</v>
+        <v>2.197464540622551</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0681595977678828</v>
+        <v>35.35132202180107</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00481961137846174</v>
+        <v>1.58095918270465</v>
       </c>
     </row>
     <row r="9">
@@ -11629,31 +11629,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.162289105063508</v>
+        <v>0.1729190430867544</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1264745084508462</v>
+        <v>0.1305102876840322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008943098257282862</v>
+        <v>0.005836597500490991</v>
       </c>
       <c r="E9" t="n">
-        <v>0.93</v>
+        <v>0.916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2551470164434614</v>
+        <v>0.2773878151613729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01804161855266871</v>
+        <v>0.01240516021661953</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7605826599154127</v>
+        <v>0.7604888919861742</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03110411526965776</v>
+        <v>0.03246985394383868</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002199393082998304</v>
+        <v>0.001452096012758259</v>
       </c>
     </row>
     <row r="10">
@@ -11663,31 +11663,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1300762196456941</v>
+        <v>0.2208610030136234</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1055448482705875</v>
+        <v>1.869301507496997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007463147793143766</v>
+        <v>0.08359770482412238</v>
       </c>
       <c r="E10" t="n">
-        <v>0.905</v>
+        <v>0.886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2932149382279149</v>
+        <v>0.317811264746862</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02073342711661533</v>
+        <v>0.01421295183978332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5971708719504999</v>
+        <v>0.8653678656954973</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02933633321291168</v>
+        <v>6.006660242111943</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002074392014999799</v>
+        <v>0.268626012382153</v>
       </c>
     </row>
     <row r="11">
@@ -11697,13 +11697,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3041936065453076</v>
+        <v>0.2018445702590814</v>
       </c>
       <c r="C11" t="n">
-        <v>2.475855135540563</v>
+        <v>1.570094435684037</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1750693955576271</v>
+        <v>0.07021675778567354</v>
       </c>
       <c r="E11" t="n">
         <v>0.91</v>
@@ -11712,16 +11712,16 @@
         <v>0.2861817604250837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02023610634484806</v>
+        <v>0.01279843740462092</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6152825928671255</v>
+        <v>0.5958839900883044</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4786312312038135</v>
+        <v>0.3049887784084555</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03384433892718827</v>
+        <v>0.01363951281791853</v>
       </c>
     </row>
     <row r="12">
@@ -12516,13 +12516,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04405694928347363</v>
+        <v>0.4918257012177451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03507389348063683</v>
+        <v>8.809168992862091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002480098792277294</v>
+        <v>0.3939580138664599</v>
       </c>
       <c r="E7" t="n">
         <v>0.9399999999999999</v>
@@ -12531,16 +12531,16 @@
         <v>0.2374868417407584</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01679285562374667</v>
+        <v>0.0106207344378814</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2184278727219516</v>
+        <v>2.608991163336954</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008900215941244618</v>
+        <v>40.87696941879042</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006293403046078681</v>
+        <v>1.828073646691909</v>
       </c>
     </row>
     <row r="8">
@@ -12550,31 +12550,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2232217863682565</v>
+        <v>0.2554043033164941</v>
       </c>
       <c r="C8" t="n">
-        <v>1.998986976228312</v>
+        <v>2.81892177785012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1413497246394631</v>
+        <v>0.1260660143705486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.93</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2551470164434614</v>
+        <v>0.2482820976228451</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01804161855266871</v>
+        <v>0.01110351295761841</v>
       </c>
       <c r="H8" t="n">
-        <v>1.786592876998772</v>
+        <v>3.050444180037414</v>
       </c>
       <c r="I8" t="n">
-        <v>15.92539537058679</v>
+        <v>33.81274767967601</v>
       </c>
       <c r="J8" t="n">
-        <v>1.126095505961877</v>
+        <v>1.512152046356077</v>
       </c>
     </row>
     <row r="9">
@@ -12584,31 +12584,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04756913974003171</v>
+        <v>0.05588156774551226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03340640503370039</v>
+        <v>0.1356785782836857</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002362189553439396</v>
+        <v>0.006067730482656957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.965</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1837797594948911</v>
+        <v>0.2374868417407583</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01299519141836703</v>
+        <v>0.0106207344378814</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2232312966196427</v>
+        <v>0.2469856596805736</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009528622175334577</v>
+        <v>0.422233637205924</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006737753355543591</v>
+        <v>0.01888286230358861</v>
       </c>
     </row>
     <row r="10">
@@ -12618,31 +12618,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4564892877140564</v>
+        <v>0.5900674239000699</v>
       </c>
       <c r="C10" t="n">
-        <v>5.820281855771426</v>
+        <v>9.299966810883653</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4115560768632998</v>
+        <v>0.4159071595525556</v>
       </c>
       <c r="E10" t="n">
-        <v>0.93</v>
+        <v>0.918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2551470164434615</v>
+        <v>0.2743647207641682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01804161855266872</v>
+        <v>0.01226996332512856</v>
       </c>
       <c r="H10" t="n">
-        <v>1.204343151748291</v>
+        <v>5.596761031915465</v>
       </c>
       <c r="I10" t="n">
-        <v>14.29875022501595</v>
+        <v>112.0642127490143</v>
       </c>
       <c r="J10" t="n">
-        <v>1.011074324660145</v>
+        <v>5.011663951035891</v>
       </c>
     </row>
     <row r="11">
@@ -12652,31 +12652,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03874603372502972</v>
+        <v>0.09533490831467085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03762476583793899</v>
+        <v>1.248224582036448</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002660472706456261</v>
+        <v>0.05582230033239521</v>
       </c>
       <c r="E11" t="n">
-        <v>0.945</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.22798026230356</v>
+        <v>0.2482820976228451</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01612063894515351</v>
+        <v>0.01110351295761841</v>
       </c>
       <c r="H11" t="n">
-        <v>0.182357104155581</v>
+        <v>1.68787616676031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09618391247544199</v>
+        <v>33.69966057543127</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00680122967524384</v>
+        <v>1.50709463730668</v>
       </c>
     </row>
     <row r="12">
